--- a/natmiOut/OldD0/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4014644549834</v>
+        <v>14.12404233333333</v>
       </c>
       <c r="H2">
-        <v>13.4014644549834</v>
+        <v>42.372127</v>
       </c>
       <c r="I2">
-        <v>0.8837091103464344</v>
+        <v>0.8844735734357805</v>
       </c>
       <c r="J2">
-        <v>0.8837091103464344</v>
+        <v>0.8844735734357805</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.869173028243449</v>
+        <v>0.8985896666666667</v>
       </c>
       <c r="N2">
-        <v>0.869173028243449</v>
+        <v>2.695769</v>
       </c>
       <c r="O2">
-        <v>0.1485312861186102</v>
+        <v>0.150721683826239</v>
       </c>
       <c r="P2">
-        <v>0.1485312861186102</v>
+        <v>0.150721683826239</v>
       </c>
       <c r="Q2">
-        <v>11.64819144323486</v>
+        <v>12.69171849229589</v>
       </c>
       <c r="R2">
-        <v>11.64819144323486</v>
+        <v>114.225466430663</v>
       </c>
       <c r="S2">
-        <v>0.1312584507144888</v>
+        <v>0.1333093462880515</v>
       </c>
       <c r="T2">
-        <v>0.1312584507144888</v>
+        <v>0.1333093462880515</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4014644549834</v>
+        <v>14.12404233333333</v>
       </c>
       <c r="H3">
-        <v>13.4014644549834</v>
+        <v>42.372127</v>
       </c>
       <c r="I3">
-        <v>0.8837091103464344</v>
+        <v>0.8844735734357805</v>
       </c>
       <c r="J3">
-        <v>0.8837091103464344</v>
+        <v>0.8844735734357805</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.62893222464246</v>
+        <v>1.645054333333333</v>
       </c>
       <c r="N3">
-        <v>1.62893222464246</v>
+        <v>4.935163</v>
       </c>
       <c r="O3">
-        <v>0.2783650555921598</v>
+        <v>0.2759272316422339</v>
       </c>
       <c r="P3">
-        <v>0.2783650555921598</v>
+        <v>0.2759272316422339</v>
       </c>
       <c r="Q3">
-        <v>21.83007730812296</v>
+        <v>23.23481704463344</v>
       </c>
       <c r="R3">
-        <v>21.83007730812296</v>
+        <v>209.113353401701</v>
       </c>
       <c r="S3">
-        <v>0.2459937356288833</v>
+        <v>0.2440503445788489</v>
       </c>
       <c r="T3">
-        <v>0.2459937356288833</v>
+        <v>0.244050344578849</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4014644549834</v>
+        <v>14.12404233333333</v>
       </c>
       <c r="H4">
-        <v>13.4014644549834</v>
+        <v>42.372127</v>
       </c>
       <c r="I4">
-        <v>0.8837091103464344</v>
+        <v>0.8844735734357805</v>
       </c>
       <c r="J4">
-        <v>0.8837091103464344</v>
+        <v>0.8844735734357805</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.35367891297237</v>
+        <v>3.418269666666667</v>
       </c>
       <c r="N4">
-        <v>3.35367891297237</v>
+        <v>10.254809</v>
       </c>
       <c r="O4">
-        <v>0.57310365828923</v>
+        <v>0.5733510845315271</v>
       </c>
       <c r="P4">
-        <v>0.57310365828923</v>
+        <v>0.5733510845315271</v>
       </c>
       <c r="Q4">
-        <v>44.94420874562658</v>
+        <v>48.27978547874923</v>
       </c>
       <c r="R4">
-        <v>44.94420874562658</v>
+        <v>434.518069308743</v>
       </c>
       <c r="S4">
-        <v>0.5064569240030624</v>
+        <v>0.50711388256888</v>
       </c>
       <c r="T4">
-        <v>0.5064569240030624</v>
+        <v>0.50711388256888</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.76355342033274</v>
+        <v>1.844826333333333</v>
       </c>
       <c r="H5">
-        <v>1.76355342033274</v>
+        <v>5.534479</v>
       </c>
       <c r="I5">
-        <v>0.1162908896535657</v>
+        <v>0.1155264265642196</v>
       </c>
       <c r="J5">
-        <v>0.1162908896535657</v>
+        <v>0.1155264265642196</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.869173028243449</v>
+        <v>0.8985896666666667</v>
       </c>
       <c r="N5">
-        <v>0.869173028243449</v>
+        <v>2.695769</v>
       </c>
       <c r="O5">
-        <v>0.1485312861186102</v>
+        <v>0.150721683826239</v>
       </c>
       <c r="P5">
-        <v>0.1485312861186102</v>
+        <v>0.150721683826239</v>
       </c>
       <c r="Q5">
-        <v>1.5328330668197</v>
+        <v>1.657741879927889</v>
       </c>
       <c r="R5">
-        <v>1.5328330668197</v>
+        <v>14.919676919351</v>
       </c>
       <c r="S5">
-        <v>0.0172728354041215</v>
+        <v>0.01741233753818752</v>
       </c>
       <c r="T5">
-        <v>0.0172728354041215</v>
+        <v>0.01741233753818753</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.76355342033274</v>
+        <v>1.844826333333333</v>
       </c>
       <c r="H6">
-        <v>1.76355342033274</v>
+        <v>5.534479</v>
       </c>
       <c r="I6">
-        <v>0.1162908896535657</v>
+        <v>0.1155264265642196</v>
       </c>
       <c r="J6">
-        <v>0.1162908896535657</v>
+        <v>0.1155264265642196</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.62893222464246</v>
+        <v>1.645054333333333</v>
       </c>
       <c r="N6">
-        <v>1.62893222464246</v>
+        <v>4.935163</v>
       </c>
       <c r="O6">
-        <v>0.2783650555921598</v>
+        <v>0.2759272316422339</v>
       </c>
       <c r="P6">
-        <v>0.2783650555921598</v>
+        <v>0.2759272316422339</v>
       </c>
       <c r="Q6">
-        <v>2.87270899625843</v>
+        <v>3.034839553897445</v>
       </c>
       <c r="R6">
-        <v>2.87270899625843</v>
+        <v>27.313555985077</v>
       </c>
       <c r="S6">
-        <v>0.03237131996327653</v>
+        <v>0.03187688706338493</v>
       </c>
       <c r="T6">
-        <v>0.03237131996327653</v>
+        <v>0.03187688706338494</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.76355342033274</v>
+        <v>1.844826333333333</v>
       </c>
       <c r="H7">
-        <v>1.76355342033274</v>
+        <v>5.534479</v>
       </c>
       <c r="I7">
-        <v>0.1162908896535657</v>
+        <v>0.1155264265642196</v>
       </c>
       <c r="J7">
-        <v>0.1162908896535657</v>
+        <v>0.1155264265642196</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35367891297237</v>
+        <v>3.418269666666667</v>
       </c>
       <c r="N7">
-        <v>3.35367891297237</v>
+        <v>10.254809</v>
       </c>
       <c r="O7">
-        <v>0.57310365828923</v>
+        <v>0.5733510845315271</v>
       </c>
       <c r="P7">
-        <v>0.57310365828923</v>
+        <v>0.5733510845315271</v>
       </c>
       <c r="Q7">
-        <v>5.914391917670209</v>
+        <v>6.306113895501223</v>
       </c>
       <c r="R7">
-        <v>5.914391917670209</v>
+        <v>56.755025059511</v>
       </c>
       <c r="S7">
-        <v>0.06664673428616766</v>
+        <v>0.0662372019626471</v>
       </c>
       <c r="T7">
-        <v>0.06664673428616766</v>
+        <v>0.0662372019626471</v>
       </c>
     </row>
   </sheetData>
